--- a/data/pca/factorExposure/factorExposure_2017-03-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-03-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01894783009845867</v>
+        <v>0.01140777530321211</v>
       </c>
       <c r="C2">
-        <v>0.01560631870776962</v>
+        <v>-0.04270480623578474</v>
       </c>
       <c r="D2">
-        <v>-0.03093155186605625</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03021113715015545</v>
+      </c>
+      <c r="E2">
+        <v>-0.04181004594388511</v>
+      </c>
+      <c r="F2">
+        <v>9.603681780677288e-05</v>
+      </c>
+      <c r="G2">
+        <v>0.1051400535186088</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.02221036939555536</v>
+        <v>0.04000827160426389</v>
       </c>
       <c r="C3">
-        <v>-0.004253849077829687</v>
+        <v>-0.09949224222893002</v>
       </c>
       <c r="D3">
-        <v>-0.08714248629388258</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.01797252068567598</v>
+      </c>
+      <c r="E3">
+        <v>-0.1028648021884963</v>
+      </c>
+      <c r="F3">
+        <v>0.008348290775869894</v>
+      </c>
+      <c r="G3">
+        <v>0.1567843449072267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02985746607036869</v>
+        <v>0.056143909560965</v>
       </c>
       <c r="C4">
-        <v>0.005790005053510966</v>
+        <v>-0.06770105015472107</v>
       </c>
       <c r="D4">
-        <v>-0.07565536239441191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.02482824551804558</v>
+      </c>
+      <c r="E4">
+        <v>-0.03711959408682584</v>
+      </c>
+      <c r="F4">
+        <v>-0.006856862663502986</v>
+      </c>
+      <c r="G4">
+        <v>0.0995232345661288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01065481249473458</v>
+        <v>0.03612362776186363</v>
       </c>
       <c r="C6">
-        <v>0.01050382726930455</v>
+        <v>-0.05023093839903388</v>
       </c>
       <c r="D6">
-        <v>-0.07225532548764586</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.0173639957332951</v>
+      </c>
+      <c r="E6">
+        <v>-0.0409554017257111</v>
+      </c>
+      <c r="F6">
+        <v>-0.002981162916933389</v>
+      </c>
+      <c r="G6">
+        <v>0.08721302806498941</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.001860910466947273</v>
+        <v>0.02066522483652507</v>
       </c>
       <c r="C7">
-        <v>0.01248196987803057</v>
+        <v>-0.03916912647704091</v>
       </c>
       <c r="D7">
-        <v>-0.03455435432021946</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.01401204793618605</v>
+      </c>
+      <c r="E7">
+        <v>-0.008230234281421032</v>
+      </c>
+      <c r="F7">
+        <v>0.00525565243821931</v>
+      </c>
+      <c r="G7">
+        <v>0.1237468535664904</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.002755417978973791</v>
+        <v>0.002778142155930207</v>
       </c>
       <c r="C8">
-        <v>0.00273994539709338</v>
+        <v>-0.0238133165373017</v>
       </c>
       <c r="D8">
-        <v>0.007072281538814176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.004074748321663569</v>
+      </c>
+      <c r="E8">
+        <v>-0.03240984405001714</v>
+      </c>
+      <c r="F8">
+        <v>-0.00146421589302357</v>
+      </c>
+      <c r="G8">
+        <v>0.07268643167606016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01354356231821211</v>
+        <v>0.03337565545981034</v>
       </c>
       <c r="C9">
-        <v>0.007405106764645091</v>
+        <v>-0.04976445848821305</v>
       </c>
       <c r="D9">
-        <v>-0.05627649045040495</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.01656782356290271</v>
+      </c>
+      <c r="E9">
+        <v>-0.0253234730422208</v>
+      </c>
+      <c r="F9">
+        <v>-0.006804745153966138</v>
+      </c>
+      <c r="G9">
+        <v>0.1008164383116397</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1395041207920207</v>
+        <v>0.09845858314417046</v>
       </c>
       <c r="C10">
-        <v>-0.1087955259891882</v>
+        <v>0.1830577455712908</v>
       </c>
       <c r="D10">
-        <v>0.1131459165939288</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01557302251111548</v>
+      </c>
+      <c r="E10">
+        <v>-0.01897717761761817</v>
+      </c>
+      <c r="F10">
+        <v>0.02313473916899951</v>
+      </c>
+      <c r="G10">
+        <v>0.05520820758964054</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.00263486107972744</v>
+        <v>0.03488853279853114</v>
       </c>
       <c r="C11">
-        <v>-0.001057241810314085</v>
+        <v>-0.05231364576077061</v>
       </c>
       <c r="D11">
-        <v>-0.05072360111100848</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.002537855812766233</v>
+      </c>
+      <c r="E11">
+        <v>-0.02016277835196612</v>
+      </c>
+      <c r="F11">
+        <v>-0.01625827433212801</v>
+      </c>
+      <c r="G11">
+        <v>0.09112337874894486</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.007682649333587773</v>
+        <v>0.03666647682290674</v>
       </c>
       <c r="C12">
-        <v>0.001227536660033972</v>
+        <v>-0.04696956420161128</v>
       </c>
       <c r="D12">
-        <v>-0.04437375900268994</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.006615077023748508</v>
+      </c>
+      <c r="E12">
+        <v>-0.01080159915385922</v>
+      </c>
+      <c r="F12">
+        <v>0.0003067922053404468</v>
+      </c>
+      <c r="G12">
+        <v>0.08331904237497831</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01684353184231761</v>
+        <v>0.01522893072861053</v>
       </c>
       <c r="C13">
-        <v>0.01407571554911678</v>
+        <v>-0.04161460741909062</v>
       </c>
       <c r="D13">
-        <v>-0.03357815352451209</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.02690799692490351</v>
+      </c>
+      <c r="E13">
+        <v>-0.04123297993345577</v>
+      </c>
+      <c r="F13">
+        <v>0.002042459220818058</v>
+      </c>
+      <c r="G13">
+        <v>0.142905858789896</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.002372002800152598</v>
+        <v>0.008171193230511633</v>
       </c>
       <c r="C14">
-        <v>0.006583345809503149</v>
+        <v>-0.02797344992425228</v>
       </c>
       <c r="D14">
-        <v>-0.01919639394042313</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01032579470569365</v>
+      </c>
+      <c r="E14">
+        <v>-0.009650807347957091</v>
+      </c>
+      <c r="F14">
+        <v>0.007325336361550855</v>
+      </c>
+      <c r="G14">
+        <v>0.1096628227236362</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.00654610075689023</v>
+        <v>0.03362714172254134</v>
       </c>
       <c r="C16">
-        <v>-0.004026890846205481</v>
+        <v>-0.04529152440373435</v>
       </c>
       <c r="D16">
-        <v>-0.04030282751799523</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.001977288233122536</v>
+      </c>
+      <c r="E16">
+        <v>-0.0157443522659233</v>
+      </c>
+      <c r="F16">
+        <v>0.002387922136864235</v>
+      </c>
+      <c r="G16">
+        <v>0.09288648811720711</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01004099456770709</v>
+        <v>0.02238841993312627</v>
       </c>
       <c r="C19">
-        <v>0.008519216118715162</v>
+        <v>-0.05096004258153636</v>
       </c>
       <c r="D19">
-        <v>-0.03579950351736257</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.01985508781536711</v>
+      </c>
+      <c r="E19">
+        <v>-0.08606548593504118</v>
+      </c>
+      <c r="F19">
+        <v>-0.01135789779739678</v>
+      </c>
+      <c r="G19">
+        <v>0.1399770774532985</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.003554123598400165</v>
+        <v>0.01553177529395209</v>
       </c>
       <c r="C20">
-        <v>0.01052733478600187</v>
+        <v>-0.04172714558480064</v>
       </c>
       <c r="D20">
-        <v>-0.0320528286822719</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.01454701553057431</v>
+      </c>
+      <c r="E20">
+        <v>-0.03941602903131731</v>
+      </c>
+      <c r="F20">
+        <v>0.01708998970691184</v>
+      </c>
+      <c r="G20">
+        <v>0.1129038047822205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.007124649419357322</v>
+        <v>0.01026315043107141</v>
       </c>
       <c r="C21">
-        <v>0.01069951984763158</v>
+        <v>-0.0377810710476551</v>
       </c>
       <c r="D21">
-        <v>-0.01585535574507424</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.01969789561687739</v>
+      </c>
+      <c r="E21">
+        <v>-0.0518730226085647</v>
+      </c>
+      <c r="F21">
+        <v>0.002713484613695437</v>
+      </c>
+      <c r="G21">
+        <v>0.1415375264571629</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.0007506752228711152</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.006705786512336213</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.001936939143634756</v>
+      </c>
+      <c r="E22">
+        <v>-0.01493071908265039</v>
+      </c>
+      <c r="F22">
+        <v>-0.01049581057349187</v>
+      </c>
+      <c r="G22">
+        <v>0.001345692251578085</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.0007471018658528577</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.006706484431203041</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.001932458461269587</v>
+      </c>
+      <c r="E23">
+        <v>-0.01488896258215008</v>
+      </c>
+      <c r="F23">
+        <v>-0.01046602234280158</v>
+      </c>
+      <c r="G23">
+        <v>0.001228518911811585</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.0005640041961546148</v>
+        <v>0.02852144988445416</v>
       </c>
       <c r="C24">
-        <v>0.006740951937462026</v>
+        <v>-0.04934275749043404</v>
       </c>
       <c r="D24">
-        <v>-0.04341489703374776</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.007240843642801308</v>
+      </c>
+      <c r="E24">
+        <v>-0.01396195295701425</v>
+      </c>
+      <c r="F24">
+        <v>-0.009048214188728945</v>
+      </c>
+      <c r="G24">
+        <v>0.09155873225258648</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01673756883308528</v>
+        <v>0.04266705045411604</v>
       </c>
       <c r="C25">
-        <v>0.0005145139054839563</v>
+        <v>-0.05676060227204504</v>
       </c>
       <c r="D25">
-        <v>-0.05728840531780657</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01127979429446645</v>
+      </c>
+      <c r="E25">
+        <v>-0.006128524652007196</v>
+      </c>
+      <c r="F25">
+        <v>-0.003357668867546229</v>
+      </c>
+      <c r="G25">
+        <v>0.09902389043089704</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01256395895073036</v>
+        <v>0.01400731448555243</v>
       </c>
       <c r="C26">
-        <v>0.01773188639176093</v>
+        <v>-0.01167001310868001</v>
       </c>
       <c r="D26">
-        <v>-0.0004132079481017326</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02418389908865476</v>
+      </c>
+      <c r="E26">
+        <v>-0.01030165305152916</v>
+      </c>
+      <c r="F26">
+        <v>0.007497962878231279</v>
+      </c>
+      <c r="G26">
+        <v>0.08595065338076639</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1879168661632078</v>
+        <v>0.1264015382989628</v>
       </c>
       <c r="C28">
-        <v>-0.1281020558914588</v>
+        <v>0.2424461160774998</v>
       </c>
       <c r="D28">
-        <v>0.1415523226152567</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.006743320219033153</v>
+      </c>
+      <c r="E28">
+        <v>-0.007394069656788755</v>
+      </c>
+      <c r="F28">
+        <v>0.01865184547316257</v>
+      </c>
+      <c r="G28">
+        <v>0.04737208969161503</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.006715122390151223</v>
+        <v>0.008482231851325368</v>
       </c>
       <c r="C29">
-        <v>0.003055959527405184</v>
+        <v>-0.0227471434741429</v>
       </c>
       <c r="D29">
-        <v>-0.01559476819362988</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.009421014006314668</v>
+      </c>
+      <c r="E29">
+        <v>-0.005605921177978388</v>
+      </c>
+      <c r="F29">
+        <v>0.01316987668093625</v>
+      </c>
+      <c r="G29">
+        <v>0.1019764736883252</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.01197644709569347</v>
+        <v>0.040964784704151</v>
       </c>
       <c r="C30">
-        <v>0.0207873417557779</v>
+        <v>-0.06824034682975187</v>
       </c>
       <c r="D30">
-        <v>-0.09564623747878165</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.0294658651010005</v>
+      </c>
+      <c r="E30">
+        <v>-0.06870688128296502</v>
+      </c>
+      <c r="F30">
+        <v>-0.03687868998865402</v>
+      </c>
+      <c r="G30">
+        <v>0.1365386955629474</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.02267991610942633</v>
+        <v>0.05325869981970963</v>
       </c>
       <c r="C31">
-        <v>-0.01064776287499199</v>
+        <v>-0.03914364306550186</v>
       </c>
       <c r="D31">
-        <v>-0.03002168579924925</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.003774977314107104</v>
+      </c>
+      <c r="E31">
+        <v>0.002925132374155931</v>
+      </c>
+      <c r="F31">
+        <v>0.03808345230517465</v>
+      </c>
+      <c r="G31">
+        <v>0.09787718422011556</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.003769214427558518</v>
+        <v>0.002473039816703109</v>
       </c>
       <c r="C32">
-        <v>-0.00710428963338568</v>
+        <v>-0.02074425487802664</v>
       </c>
       <c r="D32">
-        <v>0.006835236406467364</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.002609703991663637</v>
+      </c>
+      <c r="E32">
+        <v>-0.04163215705722624</v>
+      </c>
+      <c r="F32">
+        <v>-0.03627893089952522</v>
+      </c>
+      <c r="G32">
+        <v>0.08870154912582584</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.009351917171438353</v>
+        <v>0.02817911587511826</v>
       </c>
       <c r="C33">
-        <v>0.006764760208744036</v>
+        <v>-0.05068086748690279</v>
       </c>
       <c r="D33">
-        <v>-0.04123794572959454</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.01646174246675776</v>
+      </c>
+      <c r="E33">
+        <v>-0.05022504286210006</v>
+      </c>
+      <c r="F33">
+        <v>-0.01227093712384242</v>
+      </c>
+      <c r="G33">
+        <v>0.1639967720070589</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.011923960239458</v>
+        <v>0.04008366246826441</v>
       </c>
       <c r="C34">
-        <v>-0.01589148404927337</v>
+        <v>-0.05852230383431716</v>
       </c>
       <c r="D34">
-        <v>-0.05681877160426799</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.00436545067346986</v>
+      </c>
+      <c r="E34">
+        <v>-0.01142547692069549</v>
+      </c>
+      <c r="F34">
+        <v>-0.01921864355418458</v>
+      </c>
+      <c r="G34">
+        <v>0.09459551911394976</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.0128433663861929</v>
+        <v>0.01585117613270269</v>
       </c>
       <c r="C36">
-        <v>0.003716575533600392</v>
+        <v>-0.01035257619647804</v>
       </c>
       <c r="D36">
-        <v>-0.004394522627270165</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01291408377977168</v>
+      </c>
+      <c r="E36">
+        <v>-0.01086075502427794</v>
+      </c>
+      <c r="F36">
+        <v>0.006915998655676249</v>
+      </c>
+      <c r="G36">
+        <v>0.0937729648991537</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.01749664363873752</v>
+        <v>0.03144495212915523</v>
       </c>
       <c r="C38">
-        <v>-0.02206422244965943</v>
+        <v>-0.03015344878246754</v>
       </c>
       <c r="D38">
-        <v>-0.04160811268125735</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.007503996470267589</v>
+      </c>
+      <c r="E38">
+        <v>-0.007203528098881657</v>
+      </c>
+      <c r="F38">
+        <v>0.01886234317555072</v>
+      </c>
+      <c r="G38">
+        <v>0.08658813284603352</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.01009716777151064</v>
+        <v>0.03678420831586741</v>
       </c>
       <c r="C39">
-        <v>0.01789074219663264</v>
+        <v>-0.07856403122872209</v>
       </c>
       <c r="D39">
-        <v>-0.09775696587979855</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.01175809399727066</v>
+      </c>
+      <c r="E39">
+        <v>-0.03177349169386375</v>
+      </c>
+      <c r="F39">
+        <v>-0.01889343035247422</v>
+      </c>
+      <c r="G39">
+        <v>0.09128530829801414</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01446228634327059</v>
+        <v>0.01397593238966077</v>
       </c>
       <c r="C40">
-        <v>0.002534349670164172</v>
+        <v>-0.03798535815765031</v>
       </c>
       <c r="D40">
-        <v>-0.02871155046233507</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01494257132919346</v>
+      </c>
+      <c r="E40">
+        <v>-0.03382625721495951</v>
+      </c>
+      <c r="F40">
+        <v>0.01235912330720987</v>
+      </c>
+      <c r="G40">
+        <v>0.1266524323951118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01325564910596708</v>
+        <v>0.0201222988631587</v>
       </c>
       <c r="C41">
-        <v>-0.005745502784371866</v>
+        <v>-0.00390152452029989</v>
       </c>
       <c r="D41">
-        <v>0.009856282188769074</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.004780557747280932</v>
+      </c>
+      <c r="E41">
+        <v>-0.007990308830215363</v>
+      </c>
+      <c r="F41">
+        <v>0.01455083095812352</v>
+      </c>
+      <c r="G41">
+        <v>0.08782789533468285</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.04129929355325464</v>
+        <v>0.007860913975136536</v>
       </c>
       <c r="C42">
-        <v>0.08349240831078651</v>
+        <v>-0.02908480962808808</v>
       </c>
       <c r="D42">
-        <v>-0.1148935091084749</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.08754430575461321</v>
+      </c>
+      <c r="E42">
+        <v>-0.007316439689476816</v>
+      </c>
+      <c r="F42">
+        <v>0.04173425505253488</v>
+      </c>
+      <c r="G42">
+        <v>-0.02682704171916736</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.01399206080271439</v>
+        <v>0.03528211200948396</v>
       </c>
       <c r="C43">
-        <v>-0.005292512582628932</v>
+        <v>-0.01904712941182271</v>
       </c>
       <c r="D43">
-        <v>0.009920773055751658</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.006132880046519885</v>
+      </c>
+      <c r="E43">
+        <v>-0.02235431860918684</v>
+      </c>
+      <c r="F43">
+        <v>0.00821201870900954</v>
+      </c>
+      <c r="G43">
+        <v>0.1201883815161636</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.0006782728169302116</v>
+        <v>0.01408250050504888</v>
       </c>
       <c r="C44">
-        <v>0.003635070652717306</v>
+        <v>-0.0581662067823739</v>
       </c>
       <c r="D44">
-        <v>-0.04622348721452009</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.006961532266372903</v>
+      </c>
+      <c r="E44">
+        <v>-0.02686154899591808</v>
+      </c>
+      <c r="F44">
+        <v>0.009287049189276799</v>
+      </c>
+      <c r="G44">
+        <v>0.1110492414014035</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.006050086548388076</v>
+        <v>0.008725149251509356</v>
       </c>
       <c r="C46">
-        <v>0.007445973218612855</v>
+        <v>-0.01473013286398896</v>
       </c>
       <c r="D46">
-        <v>0.003200153924949327</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01260644233882709</v>
+      </c>
+      <c r="E46">
+        <v>-7.363155720894751e-05</v>
+      </c>
+      <c r="F46">
+        <v>0.01752117064810172</v>
+      </c>
+      <c r="G46">
+        <v>0.1093371937307163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.0238926510169271</v>
+        <v>0.07836149208913069</v>
       </c>
       <c r="C47">
-        <v>-0.01974443054152896</v>
+        <v>-0.06893376709468134</v>
       </c>
       <c r="D47">
-        <v>-0.07847202429225723</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.005093401525735089</v>
+      </c>
+      <c r="E47">
+        <v>0.01021870785440604</v>
+      </c>
+      <c r="F47">
+        <v>0.05320494837224377</v>
+      </c>
+      <c r="G47">
+        <v>0.08308946692092185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.008245937965195122</v>
+        <v>0.01857685839314075</v>
       </c>
       <c r="C48">
-        <v>-0.004761165641489596</v>
+        <v>-0.01340270387301347</v>
       </c>
       <c r="D48">
-        <v>-0.0160879516137821</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.002553530250018198</v>
+      </c>
+      <c r="E48">
+        <v>-0.00685441308190063</v>
+      </c>
+      <c r="F48">
+        <v>0.01870580319218005</v>
+      </c>
+      <c r="G48">
+        <v>0.0996372285526697</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.03007617903478987</v>
+        <v>0.07470453556881639</v>
       </c>
       <c r="C50">
-        <v>-0.02220056958943895</v>
+        <v>-0.07235368264047193</v>
       </c>
       <c r="D50">
-        <v>-0.06899543326307478</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.002165582718524192</v>
+      </c>
+      <c r="E50">
+        <v>0.006763182326118403</v>
+      </c>
+      <c r="F50">
+        <v>0.05280461751366988</v>
+      </c>
+      <c r="G50">
+        <v>0.09352046635883386</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.008830716048275553</v>
+        <v>0.01337695790533815</v>
       </c>
       <c r="C51">
-        <v>0.0005873695401513577</v>
+        <v>-0.0370957988143524</v>
       </c>
       <c r="D51">
-        <v>-0.02735369550885896</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01072902856421082</v>
+      </c>
+      <c r="E51">
+        <v>-0.03009684346220144</v>
+      </c>
+      <c r="F51">
+        <v>-0.01751957372262486</v>
+      </c>
+      <c r="G51">
+        <v>0.1233504077755324</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.03825170386338658</v>
+        <v>0.08163440426588757</v>
       </c>
       <c r="C53">
-        <v>-0.02786885285829897</v>
+        <v>-0.08528126525963259</v>
       </c>
       <c r="D53">
-        <v>-0.1261755935931066</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.003375576771108854</v>
+      </c>
+      <c r="E53">
+        <v>0.02909140998676857</v>
+      </c>
+      <c r="F53">
+        <v>0.06042001313035227</v>
+      </c>
+      <c r="G53">
+        <v>0.09175291019035273</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.01524407261531616</v>
+        <v>0.03178769884905312</v>
       </c>
       <c r="C54">
-        <v>-0.01490838701437389</v>
+        <v>-0.01882500002101374</v>
       </c>
       <c r="D54">
-        <v>0.0005015506416302288</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0009825525068866098</v>
+      </c>
+      <c r="E54">
+        <v>-0.02095172160908061</v>
+      </c>
+      <c r="F54">
+        <v>0.006062799894363015</v>
+      </c>
+      <c r="G54">
+        <v>0.1099892966373096</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.02275805015696576</v>
+        <v>0.07234077972006989</v>
       </c>
       <c r="C55">
-        <v>-0.01800775830488553</v>
+        <v>-0.06792881557459564</v>
       </c>
       <c r="D55">
-        <v>-0.1025984138878999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.00504183675531072</v>
+      </c>
+      <c r="E55">
+        <v>0.02672878634086805</v>
+      </c>
+      <c r="F55">
+        <v>0.06073570827886559</v>
+      </c>
+      <c r="G55">
+        <v>0.06796230344060179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.04288615742988076</v>
+        <v>0.1358576076544036</v>
       </c>
       <c r="C56">
-        <v>-0.03593497248667481</v>
+        <v>-0.1082398903176029</v>
       </c>
       <c r="D56">
-        <v>-0.1602345924914826</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01261121314960588</v>
+      </c>
+      <c r="E56">
+        <v>0.04038103026602653</v>
+      </c>
+      <c r="F56">
+        <v>0.07786382276500714</v>
+      </c>
+      <c r="G56">
+        <v>0.03996481139317396</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.01959090298520452</v>
+        <v>0.005505192957726842</v>
       </c>
       <c r="C57">
-        <v>0.01326715470501509</v>
+        <v>-0.005773673279060833</v>
       </c>
       <c r="D57">
-        <v>-0.02750952721873176</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02273655298684428</v>
+      </c>
+      <c r="E57">
+        <v>-0.02478813703279521</v>
+      </c>
+      <c r="F57">
+        <v>-0.004406738831549939</v>
+      </c>
+      <c r="G57">
+        <v>0.02259711237854503</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.005660974176842383</v>
+        <v>0.04895296419295106</v>
       </c>
       <c r="C58">
-        <v>-0.0004251935440038879</v>
+        <v>-0.0445497181396252</v>
       </c>
       <c r="D58">
-        <v>-0.1010849603067216</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.02360498001751306</v>
+      </c>
+      <c r="E58">
+        <v>-0.8744275184646754</v>
+      </c>
+      <c r="F58">
+        <v>0.3677440446855821</v>
+      </c>
+      <c r="G58">
+        <v>-0.2435654320714171</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.2107555432761112</v>
+        <v>0.1594859299246687</v>
       </c>
       <c r="C59">
-        <v>-0.1505030366547447</v>
+        <v>0.2071086033447241</v>
       </c>
       <c r="D59">
-        <v>0.1180582156605715</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.01154433070782198</v>
+      </c>
+      <c r="E59">
+        <v>-0.02190392757839599</v>
+      </c>
+      <c r="F59">
+        <v>0.00521469389602316</v>
+      </c>
+      <c r="G59">
+        <v>0.04112427241145655</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.1960952040368296</v>
+        <v>0.2889316550993178</v>
       </c>
       <c r="C60">
-        <v>-0.1189711446168975</v>
+        <v>-0.1128605750998245</v>
       </c>
       <c r="D60">
-        <v>-0.1678719318360463</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01283394821110192</v>
+      </c>
+      <c r="E60">
+        <v>-0.0445418314761437</v>
+      </c>
+      <c r="F60">
+        <v>-0.3446140269542967</v>
+      </c>
+      <c r="G60">
+        <v>-0.1602149708204713</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.001772186067619564</v>
+        <v>0.03875086313666982</v>
       </c>
       <c r="C61">
-        <v>0.002555933806060171</v>
+        <v>-0.06552433973566932</v>
       </c>
       <c r="D61">
-        <v>-0.07607903921493464</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.005872247057365623</v>
+      </c>
+      <c r="E61">
+        <v>-0.02775562718280234</v>
+      </c>
+      <c r="F61">
+        <v>-0.01140186030082639</v>
+      </c>
+      <c r="G61">
+        <v>0.09976846560961995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.004692484094725962</v>
+        <v>0.01483151553758047</v>
       </c>
       <c r="C63">
-        <v>0.005464372097914677</v>
+        <v>-0.03048537722118855</v>
       </c>
       <c r="D63">
-        <v>-0.0238260359008577</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.008828854036374277</v>
+      </c>
+      <c r="E63">
+        <v>-0.006507196030821851</v>
+      </c>
+      <c r="F63">
+        <v>0.01342188721867362</v>
+      </c>
+      <c r="G63">
+        <v>0.09514781714197006</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.02524524473293537</v>
+        <v>0.0492921930241414</v>
       </c>
       <c r="C64">
-        <v>-0.01188000514634755</v>
+        <v>-0.04695904348944094</v>
       </c>
       <c r="D64">
-        <v>-0.05522258675485892</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.006227469813451066</v>
+      </c>
+      <c r="E64">
+        <v>-0.006880317388895923</v>
+      </c>
+      <c r="F64">
+        <v>-0.003769394359917582</v>
+      </c>
+      <c r="G64">
+        <v>0.09862160318633846</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.03351219316699653</v>
+        <v>0.07504029050180702</v>
       </c>
       <c r="C65">
-        <v>-0.003528705274739128</v>
+        <v>-0.05816413463600181</v>
       </c>
       <c r="D65">
-        <v>-0.1142559971816909</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01706252070900845</v>
+      </c>
+      <c r="E65">
+        <v>-0.04526148432095581</v>
+      </c>
+      <c r="F65">
+        <v>-0.02398683052859953</v>
+      </c>
+      <c r="G65">
+        <v>0.04321418931454167</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.008080864529612432</v>
+        <v>0.05033298893760357</v>
       </c>
       <c r="C66">
-        <v>0.01602636686958439</v>
+        <v>-0.1054311070738178</v>
       </c>
       <c r="D66">
-        <v>-0.1396110540591542</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.01202537773545781</v>
+      </c>
+      <c r="E66">
+        <v>-0.04696560542638715</v>
+      </c>
+      <c r="F66">
+        <v>-0.02970945170087861</v>
+      </c>
+      <c r="G66">
+        <v>0.1061652059938223</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.03828402739112772</v>
+        <v>0.0544138195187104</v>
       </c>
       <c r="C67">
-        <v>-0.03285941489851132</v>
+        <v>-0.03431117623047555</v>
       </c>
       <c r="D67">
-        <v>-0.06234444147251388</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.006078961460842033</v>
+      </c>
+      <c r="E67">
+        <v>0.002822047721588967</v>
+      </c>
+      <c r="F67">
+        <v>0.01713960923164912</v>
+      </c>
+      <c r="G67">
+        <v>0.07354267343626207</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.2201251504389051</v>
+        <v>0.1571035454538197</v>
       </c>
       <c r="C68">
-        <v>-0.133558641459544</v>
+        <v>0.2709696347993598</v>
       </c>
       <c r="D68">
-        <v>0.1740629184937156</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.005552414546891867</v>
+      </c>
+      <c r="E68">
+        <v>-0.008681459025382801</v>
+      </c>
+      <c r="F68">
+        <v>0.04171426077652256</v>
+      </c>
+      <c r="G68">
+        <v>0.02771467411989815</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.02917908334441043</v>
+        <v>0.08179349035826669</v>
       </c>
       <c r="C69">
-        <v>-0.02823419518643366</v>
+        <v>-0.07160530157015253</v>
       </c>
       <c r="D69">
-        <v>-0.07910926037412645</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.009010657005016048</v>
+      </c>
+      <c r="E69">
+        <v>0.02282731152162905</v>
+      </c>
+      <c r="F69">
+        <v>0.03276108489936454</v>
+      </c>
+      <c r="G69">
+        <v>0.1000855535746769</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1788100154579353</v>
+        <v>0.1420306938272078</v>
       </c>
       <c r="C71">
-        <v>-0.1162242666767271</v>
+        <v>0.2284936799872042</v>
       </c>
       <c r="D71">
-        <v>0.1189016876312486</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.002738919016321157</v>
+      </c>
+      <c r="E71">
+        <v>-0.0309593715518592</v>
+      </c>
+      <c r="F71">
+        <v>0.03060953184854394</v>
+      </c>
+      <c r="G71">
+        <v>0.07002938313079583</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.01506089189291045</v>
+        <v>0.08602138318021803</v>
       </c>
       <c r="C72">
-        <v>-0.01890591075212096</v>
+        <v>-0.06751312802293645</v>
       </c>
       <c r="D72">
-        <v>-0.1028300356863178</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.008752143699549082</v>
+      </c>
+      <c r="E72">
+        <v>0.008096482891059565</v>
+      </c>
+      <c r="F72">
+        <v>-0.03165758711429034</v>
+      </c>
+      <c r="G72">
+        <v>0.08877672164228441</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.244681945807437</v>
+        <v>0.3768858959467329</v>
       </c>
       <c r="C73">
-        <v>-0.1429178670001083</v>
+        <v>-0.1168647764303256</v>
       </c>
       <c r="D73">
-        <v>-0.2931881667522209</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.02224281312803522</v>
+      </c>
+      <c r="E73">
+        <v>-0.1365488376014153</v>
+      </c>
+      <c r="F73">
+        <v>-0.5686100215220644</v>
+      </c>
+      <c r="G73">
+        <v>-0.2920548499372285</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.04763303456663409</v>
+        <v>0.1049804797174109</v>
       </c>
       <c r="C74">
-        <v>-0.04136725573840535</v>
+        <v>-0.1097576816339943</v>
       </c>
       <c r="D74">
-        <v>-0.1737546674380369</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.009375733795083987</v>
+      </c>
+      <c r="E74">
+        <v>0.01277363890774151</v>
+      </c>
+      <c r="F74">
+        <v>0.0662456173149206</v>
+      </c>
+      <c r="G74">
+        <v>0.08114755001696719</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.1133752816309128</v>
+        <v>0.2489694523683357</v>
       </c>
       <c r="C75">
-        <v>-0.09341353942570416</v>
+        <v>-0.1514560044314577</v>
       </c>
       <c r="D75">
-        <v>-0.2986526293127866</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03171856319777899</v>
+      </c>
+      <c r="E75">
+        <v>0.08470254422389559</v>
+      </c>
+      <c r="F75">
+        <v>0.1620910552701481</v>
+      </c>
+      <c r="G75">
+        <v>-0.02821406725296539</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.05037904949491828</v>
+        <v>0.1176410653225711</v>
       </c>
       <c r="C76">
-        <v>-0.04947122119356792</v>
+        <v>-0.110249057906571</v>
       </c>
       <c r="D76">
-        <v>-0.2006031743729714</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01749965886828427</v>
+      </c>
+      <c r="E76">
+        <v>0.03104229283458269</v>
+      </c>
+      <c r="F76">
+        <v>0.09424099080505215</v>
+      </c>
+      <c r="G76">
+        <v>0.05688908415292972</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01878717348581179</v>
+        <v>0.07125003286440669</v>
       </c>
       <c r="C77">
-        <v>-0.002227302714451412</v>
+        <v>-0.05882355987847712</v>
       </c>
       <c r="D77">
-        <v>-0.08239203803252847</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.01022803513143177</v>
+      </c>
+      <c r="E77">
+        <v>-0.05145330668918909</v>
+      </c>
+      <c r="F77">
+        <v>-0.003224717064720881</v>
+      </c>
+      <c r="G77">
+        <v>0.06854567365090131</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.00851580236075119</v>
+        <v>0.04234164079758408</v>
       </c>
       <c r="C78">
-        <v>-0.001227653615847161</v>
+        <v>-0.04969889785626559</v>
       </c>
       <c r="D78">
-        <v>-0.06350849707798328</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.006308034473243389</v>
+      </c>
+      <c r="E78">
+        <v>-0.03678350609452025</v>
+      </c>
+      <c r="F78">
+        <v>-0.03354526592260859</v>
+      </c>
+      <c r="G78">
+        <v>0.102609627164869</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.0004004182179589391</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.0005128106112274034</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0003078340860427546</v>
+      </c>
+      <c r="E79">
+        <v>-0.003239972131699695</v>
+      </c>
+      <c r="F79">
+        <v>-0.001948746531320893</v>
+      </c>
+      <c r="G79">
+        <v>0.001267663330339441</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03800186056868701</v>
+        <v>0.04486868591784467</v>
       </c>
       <c r="C80">
-        <v>-0.01364415783176886</v>
+        <v>-0.05046323718181715</v>
       </c>
       <c r="D80">
-        <v>-0.07731878199646901</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01309840961412924</v>
+      </c>
+      <c r="E80">
+        <v>-0.02665893258658464</v>
+      </c>
+      <c r="F80">
+        <v>-0.004508558693809402</v>
+      </c>
+      <c r="G80">
+        <v>0.05207622359677445</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.05983323973330992</v>
+        <v>0.1373065972568792</v>
       </c>
       <c r="C81">
-        <v>-0.048949944061211</v>
+        <v>-0.09715864521959616</v>
       </c>
       <c r="D81">
-        <v>-0.1669790704467415</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01510984706609992</v>
+      </c>
+      <c r="E81">
+        <v>0.04703774406935059</v>
+      </c>
+      <c r="F81">
+        <v>0.1216666636873631</v>
+      </c>
+      <c r="G81">
+        <v>0.01979907020343061</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.002478424870969963</v>
+        <v>0.1402299624524666</v>
       </c>
       <c r="C82">
-        <v>-0.001922823677349839</v>
+        <v>-0.08249965231794874</v>
       </c>
       <c r="D82">
-        <v>-0.002727852485462488</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.01075030564185036</v>
+      </c>
+      <c r="E82">
+        <v>0.112317106828178</v>
+      </c>
+      <c r="F82">
+        <v>0.05563837830229672</v>
+      </c>
+      <c r="G82">
+        <v>0.05965853675560186</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.01146138983214529</v>
+        <v>0.03571724357940285</v>
       </c>
       <c r="C83">
-        <v>-0.00320607619781662</v>
+        <v>-0.02903332486926893</v>
       </c>
       <c r="D83">
-        <v>-0.0182589436332559</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.00607710749321348</v>
+      </c>
+      <c r="E83">
+        <v>-0.03231873379554167</v>
+      </c>
+      <c r="F83">
+        <v>-0.02711505927066972</v>
+      </c>
+      <c r="G83">
+        <v>0.06099184706380932</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.0934808255315575</v>
+        <v>0.2096266442800183</v>
       </c>
       <c r="C85">
-        <v>-0.06460525406310559</v>
+        <v>-0.1479485400433795</v>
       </c>
       <c r="D85">
-        <v>-0.263095039471738</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01714482546288385</v>
+      </c>
+      <c r="E85">
+        <v>0.1126186949075918</v>
+      </c>
+      <c r="F85">
+        <v>0.1010586255316413</v>
+      </c>
+      <c r="G85">
+        <v>-0.06684794760503401</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01366437037937818</v>
+        <v>0.01327406071811962</v>
       </c>
       <c r="C86">
-        <v>-0.003435904076031936</v>
+        <v>-0.0256839003512692</v>
       </c>
       <c r="D86">
-        <v>-0.03652089463876782</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.01174113051102883</v>
+      </c>
+      <c r="E86">
+        <v>-0.05476674070491604</v>
+      </c>
+      <c r="F86">
+        <v>-0.01194811502686794</v>
+      </c>
+      <c r="G86">
+        <v>0.1930521043547986</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.004414607148672692</v>
+        <v>0.0224287158774096</v>
       </c>
       <c r="C87">
-        <v>0.01299113529857993</v>
+        <v>-0.01901337542876522</v>
       </c>
       <c r="D87">
-        <v>-0.02579640909018107</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.01238285277049812</v>
+      </c>
+      <c r="E87">
+        <v>-0.0995733943115146</v>
+      </c>
+      <c r="F87">
+        <v>0.004553884642959124</v>
+      </c>
+      <c r="G87">
+        <v>0.1230866026593322</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.05081295077426825</v>
+        <v>0.09316961341470649</v>
       </c>
       <c r="C88">
-        <v>-0.008004978335819516</v>
+        <v>-0.0686607827582072</v>
       </c>
       <c r="D88">
-        <v>-0.04433122190462775</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.0221087285333472</v>
+      </c>
+      <c r="E88">
+        <v>0.004419891481704023</v>
+      </c>
+      <c r="F88">
+        <v>0.01933580070877663</v>
+      </c>
+      <c r="G88">
+        <v>0.1051045075331325</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.3249317067849776</v>
+        <v>0.2312545068133348</v>
       </c>
       <c r="C89">
-        <v>-0.2072937496016124</v>
+        <v>0.3680528853566403</v>
       </c>
       <c r="D89">
-        <v>0.2148523517011175</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.000250160565891682</v>
+      </c>
+      <c r="E89">
+        <v>0.02199690543955219</v>
+      </c>
+      <c r="F89">
+        <v>0.02382448472836341</v>
+      </c>
+      <c r="G89">
+        <v>0.06979985469885706</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.2732176349432978</v>
+        <v>0.2084425256887814</v>
       </c>
       <c r="C90">
-        <v>-0.178574479895494</v>
+        <v>0.317271346927546</v>
       </c>
       <c r="D90">
-        <v>0.1929925654942866</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.004697282633632613</v>
+      </c>
+      <c r="E90">
+        <v>0.0006544942332018317</v>
+      </c>
+      <c r="F90">
+        <v>0.04768872312944331</v>
+      </c>
+      <c r="G90">
+        <v>0.04245511535211742</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.09354104495835748</v>
+        <v>0.1855692370865752</v>
       </c>
       <c r="C91">
-        <v>-0.07986746746002742</v>
+        <v>-0.1403020072956243</v>
       </c>
       <c r="D91">
-        <v>-0.2209513296030768</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.02233462189135557</v>
+      </c>
+      <c r="E91">
+        <v>0.07633249885005908</v>
+      </c>
+      <c r="F91">
+        <v>0.132497399377051</v>
+      </c>
+      <c r="G91">
+        <v>0.03128573296062397</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.2231561533921048</v>
+        <v>0.1994311766740571</v>
       </c>
       <c r="C92">
-        <v>-0.1822327699721343</v>
+        <v>0.2578048368847541</v>
       </c>
       <c r="D92">
-        <v>0.09949376527943839</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03825497464381197</v>
+      </c>
+      <c r="E92">
+        <v>-0.03277011600241331</v>
+      </c>
+      <c r="F92">
+        <v>0.06134587647719173</v>
+      </c>
+      <c r="G92">
+        <v>0.1106360970933262</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2902580819651514</v>
+        <v>0.232447949091383</v>
       </c>
       <c r="C93">
-        <v>-0.1967408096694227</v>
+        <v>0.3115169944105056</v>
       </c>
       <c r="D93">
-        <v>0.1587144704532957</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01145380342948155</v>
+      </c>
+      <c r="E93">
+        <v>-0.001014044454159431</v>
+      </c>
+      <c r="F93">
+        <v>0.04398161865653932</v>
+      </c>
+      <c r="G93">
+        <v>0.05727519230524709</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.1314441707291128</v>
+        <v>0.3180584037273895</v>
       </c>
       <c r="C94">
-        <v>-0.08100643535724633</v>
+        <v>-0.1841289657978637</v>
       </c>
       <c r="D94">
-        <v>-0.2834021818308532</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.02034564406052669</v>
+      </c>
+      <c r="E94">
+        <v>0.2686695687244179</v>
+      </c>
+      <c r="F94">
+        <v>0.4542124376189525</v>
+      </c>
+      <c r="G94">
+        <v>-0.3942472591849931</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.003680928733111594</v>
+        <v>0.09820381799076708</v>
       </c>
       <c r="C95">
-        <v>-0.01145912838028749</v>
+        <v>-0.08759539871238109</v>
       </c>
       <c r="D95">
-        <v>-0.1215102646992784</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.01019246562918554</v>
+      </c>
+      <c r="E95">
+        <v>-0.08874151917515893</v>
+      </c>
+      <c r="F95">
+        <v>-0.1622211259606412</v>
+      </c>
+      <c r="G95">
+        <v>0.007494449761527458</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1338043768178974</v>
+        <v>0.1934553215903251</v>
       </c>
       <c r="C98">
-        <v>-0.1081529502103112</v>
+        <v>-0.04410120118968425</v>
       </c>
       <c r="D98">
-        <v>-0.1261928679479384</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01224891877372591</v>
+      </c>
+      <c r="E98">
+        <v>-0.0998728799357405</v>
+      </c>
+      <c r="F98">
+        <v>-0.2330121159314773</v>
+      </c>
+      <c r="G98">
+        <v>-0.02615396574179623</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.006443547032973635</v>
+        <v>0.008263056852850999</v>
       </c>
       <c r="C101">
-        <v>0.003058237326982839</v>
+        <v>-0.0227642943196661</v>
       </c>
       <c r="D101">
-        <v>-0.01553844392483586</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.009261515524162907</v>
+      </c>
+      <c r="E101">
+        <v>-0.005326140692374043</v>
+      </c>
+      <c r="F101">
+        <v>0.01407627350830374</v>
+      </c>
+      <c r="G101">
+        <v>0.1010346621885052</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.05710092549669406</v>
+        <v>0.1148494235341763</v>
       </c>
       <c r="C102">
-        <v>-0.03115958699147499</v>
+        <v>-0.08224522190814723</v>
       </c>
       <c r="D102">
-        <v>-0.133711099349438</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.000815698579977296</v>
+      </c>
+      <c r="E102">
+        <v>0.03965694774487684</v>
+      </c>
+      <c r="F102">
+        <v>0.03826406765523465</v>
+      </c>
+      <c r="G102">
+        <v>0.01178523703865962</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.5553183059742943</v>
+        <v>0.02130882716596122</v>
       </c>
       <c r="C104">
-        <v>0.8209719198074271</v>
+        <v>0.02967849852653803</v>
       </c>
       <c r="D104">
-        <v>0.0210213874228378</v>
+        <v>0.987703797241906</v>
+      </c>
+      <c r="E104">
+        <v>0.05724971343458276</v>
+      </c>
+      <c r="F104">
+        <v>0.03125205311963656</v>
+      </c>
+      <c r="G104">
+        <v>-0.04049325891971456</v>
       </c>
     </row>
   </sheetData>
